--- a/sputnik/personal/cel/cel207.xlsx
+++ b/sputnik/personal/cel/cel207.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -190,7 +190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -203,6 +202,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -553,7 +553,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -565,7 +565,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -577,52 +577,64 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1449</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="17">
+        <v>44090</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel207.xlsx
+++ b/sputnik/personal/cel/cel207.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -203,6 +208,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -553,7 +559,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -565,7 +571,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -577,7 +583,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -589,7 +595,7 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43952</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -600,41 +606,95 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>44090</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>43973</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>44090</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2050</v>
+      </c>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel207.xlsx
+++ b/sputnik/personal/cel/cel207.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -519,7 +531,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C11"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,33 +662,57 @@
         <v>9</v>
       </c>
       <c r="C11" s="12">
-        <v>2050</v>
+        <v>170</v>
       </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="16">
+        <v>44495</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16">
+        <v>44495</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16">
+        <v>44495</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>1449</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="16">
+        <v>44495</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>431</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>

--- a/sputnik/personal/cel/cel207.xlsx
+++ b/sputnik/personal/cel/cel207.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +87,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +228,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,7 +541,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,7 +575,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="18">
         <v>500</v>
       </c>
       <c r="D3" s="6"/>
